--- a/5/5/Activos y pasivos del sector bancario 1998 a 2021 - Mensual.xlsx
+++ b/5/5/Activos y pasivos del sector bancario 1998 a 2021 - Mensual.xlsx
@@ -13608,8 +13608,44 @@
       <c r="A283" t="s">
         <v>295</v>
       </c>
+      <c r="B283">
+        <v>198990</v>
+      </c>
+      <c r="C283">
+        <v>31196</v>
+      </c>
       <c r="D283">
         <v>33054</v>
+      </c>
+      <c r="E283">
+        <v>-1858</v>
+      </c>
+      <c r="F283">
+        <v>167794</v>
+      </c>
+      <c r="G283">
+        <v>185087</v>
+      </c>
+      <c r="H283">
+        <v>15325</v>
+      </c>
+      <c r="I283">
+        <v>-32618</v>
+      </c>
+      <c r="J283">
+        <v>198990</v>
+      </c>
+      <c r="K283">
+        <v>80610</v>
+      </c>
+      <c r="L283">
+        <v>118379</v>
+      </c>
+      <c r="M283">
+        <v>106678</v>
+      </c>
+      <c r="N283">
+        <v>11701</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -13617,7 +13653,7 @@
         <v>296</v>
       </c>
       <c r="D284">
-        <v>37195</v>
+        <v>36991</v>
       </c>
     </row>
   </sheetData>

--- a/5/5/Activos y pasivos del sector bancario 1998 a 2021 - Mensual.xlsx
+++ b/5/5/Activos y pasivos del sector bancario 1998 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>Serie</t>
   </si>
@@ -905,6 +905,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N284"/>
+  <dimension ref="A1:N285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13656,6 +13659,14 @@
         <v>36991</v>
       </c>
     </row>
+    <row r="285" spans="1:14">
+      <c r="A285" t="s">
+        <v>297</v>
+      </c>
+      <c r="D285">
+        <v>40576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/5/Activos y pasivos del sector bancario 1998 a 2021 - Mensual.xlsx
+++ b/5/5/Activos y pasivos del sector bancario 1998 a 2021 - Mensual.xlsx
@@ -13655,8 +13655,44 @@
       <c r="A284" t="s">
         <v>296</v>
       </c>
+      <c r="B284">
+        <v>203712</v>
+      </c>
+      <c r="C284">
+        <v>34027</v>
+      </c>
       <c r="D284">
         <v>36991</v>
+      </c>
+      <c r="E284">
+        <v>-2964</v>
+      </c>
+      <c r="F284">
+        <v>169685</v>
+      </c>
+      <c r="G284">
+        <v>187511</v>
+      </c>
+      <c r="H284">
+        <v>16214</v>
+      </c>
+      <c r="I284">
+        <v>-34041</v>
+      </c>
+      <c r="J284">
+        <v>203712</v>
+      </c>
+      <c r="K284">
+        <v>81330</v>
+      </c>
+      <c r="L284">
+        <v>122382</v>
+      </c>
+      <c r="M284">
+        <v>109711</v>
+      </c>
+      <c r="N284">
+        <v>12671</v>
       </c>
     </row>
     <row r="285" spans="1:14">

--- a/5/5/Activos y pasivos del sector bancario 1998 a 2021 - Mensual.xlsx
+++ b/5/5/Activos y pasivos del sector bancario 1998 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t>Serie</t>
   </si>
@@ -908,6 +908,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N285"/>
+  <dimension ref="A1:N286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13703,6 +13706,14 @@
         <v>40576</v>
       </c>
     </row>
+    <row r="286" spans="1:14">
+      <c r="A286" t="s">
+        <v>298</v>
+      </c>
+      <c r="D286">
+        <v>42839</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/5/Activos y pasivos del sector bancario 1998 a 2021 - Mensual.xlsx
+++ b/5/5/Activos y pasivos del sector bancario 1998 a 2021 - Mensual.xlsx
@@ -13702,8 +13702,44 @@
       <c r="A285" t="s">
         <v>297</v>
       </c>
+      <c r="B285">
+        <v>207446</v>
+      </c>
+      <c r="C285">
+        <v>36276</v>
+      </c>
       <c r="D285">
         <v>40576</v>
+      </c>
+      <c r="E285">
+        <v>-4300</v>
+      </c>
+      <c r="F285">
+        <v>171170</v>
+      </c>
+      <c r="G285">
+        <v>189031</v>
+      </c>
+      <c r="H285">
+        <v>15950</v>
+      </c>
+      <c r="I285">
+        <v>-33812</v>
+      </c>
+      <c r="J285">
+        <v>207446</v>
+      </c>
+      <c r="K285">
+        <v>80589</v>
+      </c>
+      <c r="L285">
+        <v>126856</v>
+      </c>
+      <c r="M285">
+        <v>111248</v>
+      </c>
+      <c r="N285">
+        <v>15608</v>
       </c>
     </row>
     <row r="286" spans="1:14">

--- a/5/5/Activos y pasivos del sector bancario 1998 a 2021 - Mensual.xlsx
+++ b/5/5/Activos y pasivos del sector bancario 1998 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
   <si>
     <t>Serie</t>
   </si>
@@ -911,6 +911,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N286"/>
+  <dimension ref="A1:N287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13750,6 +13753,14 @@
         <v>42839</v>
       </c>
     </row>
+    <row r="287" spans="1:14">
+      <c r="A287" t="s">
+        <v>299</v>
+      </c>
+      <c r="D287">
+        <v>44325</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
